--- a/template/swtz.xlsx
+++ b/template/swtz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\election-s-prediction\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53589137-B2A5-495B-ACB4-B34788AC823E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF0E723-2F7D-4734-A421-1F3DE8E2E87B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19770" yWindow="3060" windowWidth="30945" windowHeight="15015" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="4260" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赴台事由及行程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>台方企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +60,18 @@
   </si>
   <si>
     <t>台方企业法人代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,8 +160,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DB2E6C-5F26-1846-B2D9-BF857E759B07}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -494,7 +497,7 @@
     <col min="10" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -506,8 +509,11 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,11 +540,17 @@
       </c>
       <c r="I2" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/swtz.xlsx
+++ b/template/swtz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF0E723-2F7D-4734-A421-1F3DE8E2E87B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ACDFFE-E672-4CD6-8738-66700A2AF96B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
   </si>
   <si>
     <t>地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -144,13 +140,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,11 +193,17 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DB2E6C-5F26-1846-B2D9-BF857E759B07}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
@@ -497,23 +536,22 @@
     <col min="10" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -543,14 +581,11 @@
       </c>
       <c r="J2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/swtz.xlsx
+++ b/template/swtz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\election-s-prediction\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ACDFFE-E672-4CD6-8738-66700A2AF96B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F27A858-9ECE-4151-B8DD-9EBB1010CEF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{6EE71059-EEF6-2A4B-B680-254874A089E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赴台事由及行程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,50 +144,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -193,16 +160,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,36 +480,36 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" ht="25.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -565,27 +523,30 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
